--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.283</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.56</v>
+        <v>15.205</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.125</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.557</v>
+        <v>20.931</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.495</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.356</v>
+        <v>4.368</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.06757748272991</v>
+        <v>17.85959895503306</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.50844154516322</v>
+        <v>18.40556443304369</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.10362447287688</v>
+        <v>31.42877291198858</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.349405639983748</v>
+        <v>5.190820976999298</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.4572448766391</v>
+        <v>22.8544415461022</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.27743512787655</v>
+        <v>28.67660047296035</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.49369299661318</v>
+        <v>9.265005843301211</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.16055333000317</v>
+        <v>42.82929556736393</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40.34840346056964</v>
+        <v>46.26864162376248</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.80242891905536</v>
+        <v>18.10035675572602</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44.40568087683344</v>
+        <v>21.06904198064646</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48.40330877876382</v>
+        <v>21.51846181802948</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.93577094865939</v>
+        <v>23.96478110492328</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.93229313675887</v>
+        <v>18.47184530116627</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45.86243102171728</v>
+        <v>43.3553219608178</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.41600393693996</v>
+        <v>15.87555101165457</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.13990758991084</v>
+        <v>25.53057833371263</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.72338088445558</v>
+        <v>31.16769236718577</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.538044536169476</v>
+        <v>5.018639236260068</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.61576679468011</v>
+        <v>14.20108463919349</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.49073327760783</v>
+        <v>19.05115864881502</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.00007390684582</v>
+        <v>-0.5509996224106253</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.86042578562535</v>
+        <v>20.16117945402907</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.92563259913188</v>
+        <v>24.12873936889681</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.46722353983948</v>
+        <v>31.84594173620545</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.04955524297334</v>
+        <v>34.49568953869248</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.322905480343213</v>
+        <v>0.3701277849704177</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.5569616553687</v>
+        <v>36.9183500789629</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.36476157851651</v>
+        <v>37.21815162706006</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.63645540089706</v>
+        <v>4.880134506611245</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.41862639831821</v>
+        <v>53.17555062274629</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.59381324716837</v>
+        <v>49.85804558265259</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.9412597390543</v>
+        <v>47.47401117320146</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.55190866752785</v>
+        <v>51.87449262864662</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.55313684935961</v>
+        <v>52.46383768114963</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.89477342365318</v>
+        <v>33.12884834872312</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.05037887296575</v>
+        <v>48.61560206122699</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.95284206273234</v>
+        <v>58.91599698764104</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.27830808829968</v>
+        <v>23.2401578084326</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.10243543176109</v>
+        <v>40.51818111971313</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.6756210873851</v>
+        <v>41.01396910967139</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.515183895032088</v>
+        <v>7.207575049621905</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.7180760043054</v>
+        <v>39.17704931098739</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.58297327016579</v>
+        <v>39.84349197233227</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>19.14708162445427</v>
+        <v>6.50194227141716</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.12215974708897</v>
+        <v>55.63348089170032</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.18786059494493</v>
+        <v>7.116641648821886</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.74001596355415</v>
+        <v>19.610606829467</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.3227317754224</v>
+        <v>26.22092904539211</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.62466036682997</v>
+        <v>-0.707655947666705</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.87066129133893</v>
+        <v>32.03514438257766</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.68063087981248</v>
+        <v>35.39216473993382</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.95671107154415</v>
+        <v>4.193852725297031</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.74876718921607</v>
+        <v>49.61953762262081</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.92429636511491</v>
+        <v>52.42824766020019</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.25329614311174</v>
+        <v>56.16310702266114</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.85897108295311</v>
+        <v>58.02954648032807</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50.86322660707052</v>
+        <v>63.20251208220641</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.17186239435145</v>
+        <v>12.86895314396685</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>40.35578005062754</v>
+        <v>34.47042269815614</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.25572800902661</v>
+        <v>47.65673748848198</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.53839137837007</v>
+        <v>13.15207539030585</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.37251640102875</v>
+        <v>29.62876011874535</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.94674135032394</v>
+        <v>37.3772777107083</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.814543635369473</v>
+        <v>3.673459271548516</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.02898296721538</v>
+        <v>26.75118346762868</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.89652633230405</v>
+        <v>36.91205910536776</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19.46472611236171</v>
+        <v>2.66604600735943</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.44912156126822</v>
+        <v>45.02687097260353</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.06189064860554</v>
+        <v>4.24173834732105</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.58195269798649</v>
+        <v>16.92617801667094</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.18452562084538</v>
+        <v>27.51274269892654</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.432270027527845</v>
+        <v>0.5337568848944834</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.63574587027309</v>
+        <v>34.18365746947401</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.46633773188405</v>
+        <v>41.22600779197406</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.67251095762514</v>
+        <v>1.413150669587154</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.43034828397991</v>
+        <v>48.50445085306586</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.62693294505038</v>
+        <v>54.75520638193356</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.00704615332421</v>
+        <v>51.592586319498</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.62037340511559</v>
+        <v>52.08691284138762</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.63254141318522</v>
+        <v>60.73833579259561</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.99910350307948</v>
+        <v>10.71990006960473</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.12590933424676</v>
+        <v>25.41829428318896</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.06346856168233</v>
+        <v>50.45337847980851</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14.41294812111929</v>
+        <v>10.19581502112982</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.21575626011215</v>
+        <v>28.30820177843585</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.80816843833909</v>
+        <v>37.36007858340193</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.620867200628437</v>
+        <v>6.360083991664503</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.79346951980398</v>
+        <v>30.0557229487846</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.68014139280641</v>
+        <v>43.95830513815758</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.17925556017608</v>
+        <v>2.110750513232322</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.13010246484932</v>
+        <v>41.20899220454356</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.0988963625835</v>
+        <v>24.74677410715061</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.80159261658425</v>
+        <v>19.75853269324568</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.11527770001808</v>
+        <v>34.04972015668955</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.26931103983117</v>
+        <v>36.94523050771706</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.49381862196214</v>
+        <v>5.452457156359046</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.74798620019202</v>
+        <v>13.48811867062529</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>49.14155835037245</v>
+        <v>24.05479709818716</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.20131963784149</v>
+        <v>13.88176773719288</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>38.0286796099213</v>
+        <v>22.1225318372636</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.02787322237835</v>
+        <v>32.67878416055213</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.43203027143326</v>
+        <v>2.082125628688139</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.20936089175091</v>
+        <v>10.33747725402204</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.34983005323953</v>
+        <v>19.67836407656938</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.86719028313459</v>
+        <v>-2.498808935732523</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>47.92553517607193</v>
+        <v>22.74761558966114</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>53.59807514157096</v>
+        <v>38.37279447370598</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.17046359902179</v>
+        <v>23.85690550793469</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>58.72317367250598</v>
+        <v>39.70935307269369</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>63.12904843946475</v>
+        <v>49.55255879238933</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.00250178366777</v>
+        <v>2.290803203755576</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.23646676658073</v>
+        <v>18.39719747153731</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.21114902546907</v>
+        <v>33.24759762236251</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.35101670407701</v>
+        <v>58.16404455527628</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.93955519896889</v>
+        <v>59.94590068570665</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>49.2602044651327</v>
+        <v>68.33638273845072</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>53.41842802824711</v>
+        <v>66.97656853515777</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.4568809242104</v>
+        <v>25.74105507276623</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.87098634277485</v>
+        <v>63.00764483490163</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>51.23876079617996</v>
+        <v>66.87671741102945</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.11671727370231</v>
+        <v>28.21434573074869</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.04696810745806</v>
+        <v>43.8956037146861</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.0341277234698</v>
+        <v>46.47676873640471</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>16.46274533664803</v>
+        <v>9.806786397914006</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.3681714965747</v>
+        <v>46.86470253729689</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.49743988586396</v>
+        <v>47.89366070273209</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.07495698985159</v>
+        <v>10.42633421435173</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.2512939679489</v>
+        <v>69.52450585640389</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>55.91167404214401</v>
+        <v>71.74926279124134</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.37063449240035</v>
+        <v>82.23655514840308</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>60.93053281490847</v>
+        <v>84.88163577208721</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>65.33994289299314</v>
+        <v>87.76468179519654</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.02688820759385</v>
+        <v>34.09098111870188</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.42109233311787</v>
+        <v>81.27605327040364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>62.37142963656227</v>
+        <v>83.40357310961221</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>45.6791134836068</v>
+        <v>62.30296716488695</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.24730274023521</v>
+        <v>48.85503434691377</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.56248584265098</v>
+        <v>57.67940439018828</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>53.72353765708877</v>
+        <v>64.74075430914742</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.73221709843155</v>
+        <v>13.05560790887595</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>44.1734022058989</v>
+        <v>55.00463635799026</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>51.53936235549547</v>
+        <v>62.83816794692893</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.39441515817174</v>
+        <v>16.82237024387996</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.33505849565525</v>
+        <v>34.4054847017707</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.32212598540222</v>
+        <v>44.13948404485991</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.77979414668187</v>
+        <v>5.499883127707985</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.6967564953439</v>
+        <v>37.23115741342977</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.82778826350384</v>
+        <v>44.81096337874307</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.41142140897083</v>
+        <v>4.833815121010293</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>50.5975685899073</v>
+        <v>60.53014649123305</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>56.25765831679314</v>
+        <v>75.06985423826954</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>52.69536606280167</v>
+        <v>74.52539172437909</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>61.24976586493234</v>
+        <v>79.06203247871525</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>65.66197897299261</v>
+        <v>90.92718081346624</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.31970736540738</v>
+        <v>17.92028555754416</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>54.74042402730777</v>
+        <v>72.62682068541226</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>62.68867631098226</v>
+        <v>82.48065732932685</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.37930449276604</v>
+        <v>58.81385093315539</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.00103795008341</v>
+        <v>30.10650283136536</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.32527255045884</v>
+        <v>36.88527324948254</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.4938983274524</v>
+        <v>49.10522983992369</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.55854820895786</v>
+        <v>9.139553957090222</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.94410665213972</v>
+        <v>46.28528647242818</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.3454531265896</v>
+        <v>58.71396760830196</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.26039417826517</v>
+        <v>12.86792661669889</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.17041349042143</v>
+        <v>34.44431746171516</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.17714641702302</v>
+        <v>46.16293685501049</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.57787755433344</v>
+        <v>7.974604734710876</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.45456392674613</v>
+        <v>40.53623235525281</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.60553475270682</v>
+        <v>52.05214216562955</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.11747846114431</v>
+        <v>3.783284955818875</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.27056524207545</v>
+        <v>57.00373196630787</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.95185896064342</v>
+        <v>74.35775208802409</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.44370596279261</v>
+        <v>64.26617154185239</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.00742728158413</v>
+        <v>70.23065092342262</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>64.4286017583116</v>
+        <v>89.94028906722829</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.13509354885528</v>
+        <v>12.65947154363372</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.50386695483372</v>
+        <v>63.78954800742473</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>61.48731941119296</v>
+        <v>82.59811673431619</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4.155695920179952</v>
+        <v>10.62966125912489</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.63236769448982</v>
+        <v>11.53012025795335</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.98924533801114</v>
+        <v>25.11701163038988</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.1263855020490556</v>
+        <v>1.535141649506404</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.87679043447847</v>
+        <v>15.79803183781931</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.34145522048765</v>
+        <v>19.44723503819154</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.868554737802548</v>
+        <v>4.604109248232472</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.34415389655255</v>
+        <v>33.63329100296257</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.29554846389995</v>
+        <v>38.18774243987463</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.80475527565978</v>
+        <v>12.61828692780718</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.93546306496214</v>
+        <v>16.57733080596082</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.71721092524779</v>
+        <v>16.23383108761861</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.537394615598181</v>
+        <v>11.33064947385907</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.29713680758855</v>
+        <v>11.76352944389508</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.67201387901008</v>
+        <v>31.12997942124503</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>7.395959202623448</v>
+        <v>8.273526060438495</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.12025946707526</v>
+        <v>21.36760279366953</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.45149435949089</v>
+        <v>24.66566769245797</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.071658718191221</v>
+        <v>-0.9814448965642093</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.02996947525661</v>
+        <v>10.36224316836719</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.51406938730998</v>
+        <v>13.3325481822776</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.35203440553727</v>
+        <v>-0.9298169240368885</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.9888055971083</v>
+        <v>21.73274773428963</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>5.896071481782253</v>
+        <v>18.25618253745328</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.46777206670482</v>
+        <v>22.98621198821164</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.81309988452345</v>
+        <v>29.25111391697249</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.727010899207665</v>
+        <v>0.2980935915079286</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.85006929146126</v>
+        <v>28.68161850854695</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.30316128803526</v>
+        <v>30.151553910731</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.878535161121144</v>
+        <v>3.147605056268102</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.46288306349449</v>
+        <v>43.22146572285639</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.40280919419514</v>
+        <v>43.95294467474457</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>30.80989794473864</v>
+        <v>35.65616683896867</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.94787089528346</v>
+        <v>44.33478618290617</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.73413775575431</v>
+        <v>46.06151666637032</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11.37191102955204</v>
+        <v>17.63283866810777</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.28365130288637</v>
+        <v>35.36856290253954</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.63270456257295</v>
+        <v>43.01145364108733</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.142050703618692</v>
+        <v>15.674312923404</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.9608624493687</v>
+        <v>31.44400854833196</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.28294732301924</v>
+        <v>32.81346856713852</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3.930267439852972</v>
+        <v>-0.1535248020843518</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.00747427922217</v>
+        <v>28.95880274578547</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.48213938913796</v>
+        <v>31.37306341578352</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.36781956828722</v>
+        <v>1.745141616191031</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>32.11276384485346</v>
+        <v>46.54447875701032</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.147924550332329</v>
+        <v>4.049244856963572</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.72976461989252</v>
+        <v>13.71757444992801</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.07517342042725</v>
+        <v>23.06004145048711</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2.017605830008375</v>
+        <v>-0.6134873213164234</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.15243552981594</v>
+        <v>26.24737411874</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.60721222232398</v>
+        <v>28.6135226230202</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.18644083356821</v>
+        <v>4.223346997448974</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.78021799590012</v>
+        <v>42.84866017504304</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.72011457640746</v>
+        <v>46.48578912846165</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.10996164568186</v>
+        <v>43.58391011993967</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.24325763953511</v>
+        <v>48.93594800125972</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.03243523316872</v>
+        <v>55.62068191231134</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.638706293896</v>
+        <v>0.5820848922591715</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.57775941210595</v>
+        <v>21.5101107787428</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.92392346007611</v>
+        <v>30.53330124331891</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.392303039660362</v>
+        <v>8.659055055951608</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.22066723161638</v>
+        <v>24.61670852572979</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.54350011047504</v>
+        <v>30.39844277920814</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.218863472349994</v>
+        <v>-1.111132889929138</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.30742449455499</v>
+        <v>22.98578085499283</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.78428331033412</v>
+        <v>30.09456116017978</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.67352695067234</v>
+        <v>0.8814988092773177</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.4273169483665</v>
+        <v>40.56123579595943</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>5.084816047568182</v>
+        <v>-0.5549326317931964</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.63654073204853</v>
+        <v>9.568852304705057</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.00004999440918</v>
+        <v>22.78455409513958</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.8892976678240103</v>
+        <v>-1.622231439530466</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.9836520430383</v>
+        <v>25.04678218784671</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.45739690715807</v>
+        <v>33.54831478223826</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>8.972569552705551</v>
+        <v>-0.6859267366630846</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.5343207931442</v>
+        <v>41.56577828047342</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>33.49350262915565</v>
+        <v>47.41503953992955</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.93285912788809</v>
+        <v>41.15735549782471</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>37.07327417622399</v>
+        <v>44.97097332643251</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.86904753121667</v>
+        <v>50.76823272414146</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.53049412479364</v>
+        <v>-2.396697292437398</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.41473724808148</v>
+        <v>17.76509477961276</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>37.79547247476264</v>
+        <v>36.92029157489068</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.328148429991668</v>
+        <v>3.001838427361722</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.12709022696238</v>
+        <v>20.84485239888052</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.46642662589243</v>
+        <v>27.22073578890181</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.087789925871768</v>
+        <v>-2.887122934706333</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.13645689691126</v>
+        <v>20.30074441558554</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.63084096444337</v>
+        <v>31.01618571875553</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.45682657018304</v>
+        <v>-2.775299725448523</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.17916547318141</v>
+        <v>34.90217655215324</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.97385805838028</v>
+        <v>26.63030049470872</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.79933152866364</v>
+        <v>19.92355416433387</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.60921897226603</v>
+        <v>31.93877525756901</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.55799170919182</v>
+        <v>33.34183254476332</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.22641415900833</v>
+        <v>7.514325377954929</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.1140435862285</v>
+        <v>17.93190570360926</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.01395482153999</v>
+        <v>25.68513383882186</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.99430170611165</v>
+        <v>14.26419802298824</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.82318009275043</v>
+        <v>24.24523621844314</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.57962338803969</v>
+        <v>34.36249047091432</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>9.720991305612188</v>
+        <v>-3.454177078783516</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.35203149765074</v>
+        <v>9.566254448521843</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.13266899608983</v>
+        <v>17.10444509809429</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.01677544071171</v>
+        <v>0.5599927297198555</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>40.8486436487881</v>
+        <v>27.92559349034536</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>46.27656487664182</v>
+        <v>43.5055963618284</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>42.84565168322474</v>
+        <v>27.3246192294989</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>50.85367983997541</v>
+        <v>41.13955219610656</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>55.02194228021678</v>
+        <v>47.97585869792907</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.35979259898037</v>
+        <v>7.818379746847871</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.27101582876065</v>
+        <v>23.22938649743914</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.71867239420837</v>
+        <v>36.48207399556081</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.08921430468403</v>
+        <v>52.95126966162788</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.80505941045346</v>
+        <v>45.45524653027843</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40.62186392870702</v>
+        <v>54.28762548639274</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.5757236971893</v>
+        <v>54.74420399816935</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.06643263861247</v>
+        <v>16.69097618628087</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.10669207264445</v>
+        <v>51.44930349517992</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.98254686656394</v>
+        <v>53.41554010668655</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.79500469411458</v>
+        <v>25.23019406681767</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.72092226853851</v>
+        <v>38.66768845004667</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.46653987869372</v>
+        <v>42.88257670465813</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.63481844886013</v>
+        <v>2.803005341239214</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.38759377753394</v>
+        <v>39.25081679507316</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.15771978596759</v>
+        <v>42.69228484736963</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.09512803459758</v>
+        <v>7.620605429957802</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>43.03825793363716</v>
+        <v>62.57492769203672</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>48.45513772966736</v>
+        <v>67.90393084568066</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.91539089428895</v>
+        <v>70.94427347336395</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.93028968207192</v>
+        <v>76.55499581822431</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>57.10298599234835</v>
+        <v>80.9512502002393</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>23.26254887316778</v>
+        <v>28.91421995204518</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.32669232404906</v>
+        <v>70.64452759389258</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>53.75164856006095</v>
+        <v>73.03831780111958</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.40453534136827</v>
+        <v>55.88600839955119</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.10117417189926</v>
+        <v>39.80539351617313</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.91280856181782</v>
+        <v>46.89626794656193</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.86937267418152</v>
+        <v>54.24529519271334</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.3316671880462</v>
+        <v>7.462488802603911</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.39798914751456</v>
+        <v>46.03016733489227</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.27167577735761</v>
+        <v>49.37412948401365</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.06138869315874</v>
+        <v>15.90664381650695</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.99725487390098</v>
+        <v>32.63139928147064</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.74251003373583</v>
+        <v>41.3149480034398</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.93980309060961</v>
+        <v>0.6020446600225995</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.70392714214711</v>
+        <v>35.8599560040541</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.47537896225333</v>
+        <v>41.51918436040405</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.41823301874602</v>
+        <v>4.856327236829653</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>43.37070832651597</v>
+        <v>59.14398317602206</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.78696388755506</v>
+        <v>71.29855054542038</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45.22730848742665</v>
+        <v>67.80850492713239</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.23698628852479</v>
+        <v>72.70384090752114</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.41237911436193</v>
+        <v>86.14738330665331</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.544061011889</v>
+        <v>15.93451483820897</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>46.63372078711301</v>
+        <v>65.81964751239879</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>54.05618947118893</v>
+        <v>71.77961686240494</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.17390069767214</v>
+        <v>48.73517887130377</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.92258624353519</v>
+        <v>23.63178487396008</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.74265461962567</v>
+        <v>31.36862426059744</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.70548401130243</v>
+        <v>37.23410667399652</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.22128362864614</v>
+        <v>3.067878463028574</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.23416581922476</v>
+        <v>38.79368352923599</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.14037642146917</v>
+        <v>47.04650697843529</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.98893782834801</v>
+        <v>10.0944508309639</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.89616448765823</v>
+        <v>31.36771028574485</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.65941770385999</v>
+        <v>42.01636652113751</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>10.8006328052303</v>
+        <v>-0.2534381901677598</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.52644522772536</v>
+        <v>35.0514533074949</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.31630174018432</v>
+        <v>44.56158472500704</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.19313853875764</v>
+        <v>1.558087405512378</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.11475628298028</v>
+        <v>55.40223351599009</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>47.55052012994001</v>
+        <v>69.44912389994988</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.04327058165668</v>
+        <v>60.35516910767583</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>52.06175798365849</v>
+        <v>67.51362069807432</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.24469176674434</v>
+        <v>81.13664308232768</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.42275839322089</v>
+        <v>9.487937098743917</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.46282317775401</v>
+        <v>62.26004464453584</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>52.91765978884593</v>
+        <v>74.53337196014493</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.09230524267643</v>
+        <v>13.16655924566913</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>39.97546327952036</v>
+        <v>15.12018030219377</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>44.21134346991627</v>
+        <v>28.05393599039514</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.92133376068145</v>
+        <v>2.529644773048744</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.4001891065092</v>
+        <v>18.73551959072097</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.8063939180123</v>
+        <v>23.24860044188017</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.47780652908488</v>
+        <v>6.636094597361836</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>49.3996493376432</v>
+        <v>41.10507946153599</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>54.19560544983641</v>
+        <v>44.23908360214855</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>49.17483832462839</v>
+        <v>15.25410091199569</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>56.56807560864785</v>
+        <v>19.96586773543014</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>60.22494327016204</v>
+        <v>21.0606531700037</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.83281232224375</v>
+        <v>25.25649717099831</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>49.98089759686859</v>
+        <v>16.71223672939299</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>57.39763446979164</v>
+        <v>33.56648444552054</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.01378082614276</v>
+        <v>15.88159809327222</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.13926806585856</v>
+        <v>28.84709821814758</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>47.34073671589514</v>
+        <v>33.76102696595829</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.74735727539792</v>
+        <v>4.372561208239727</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>40.17042028870376</v>
+        <v>17.01369436525144</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.59885826230517</v>
+        <v>20.76528120708404</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.57536465941664</v>
+        <v>0.5789058984245834</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>51.65303923965984</v>
+        <v>26.59753613431671</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.8740739726458</v>
+        <v>24.49020181418362</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>41.85299266413359</v>
+        <v>34.43939275822783</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.0759253852919</v>
+        <v>36.89137803503444</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.81242386589566</v>
+        <v>3.652172064013705</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>40.41136214640492</v>
+        <v>38.95412498765714</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>44.80479791366199</v>
+        <v>39.3705724040054</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.53052645443326</v>
+        <v>7.553101117738574</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>51.56195472529325</v>
+        <v>57.83894238403647</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.34510114497716</v>
+        <v>53.66067008556234</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>51.22136572445452</v>
+        <v>47.90872695487104</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.6218408496317</v>
+        <v>55.63700360158582</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>62.28136461969881</v>
+        <v>57.38376644469155</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.70850579414865</v>
+        <v>35.7685600288901</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>52.00785131881454</v>
+        <v>46.35700595627826</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>59.39740430839518</v>
+        <v>50.73328118894705</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.79896885368998</v>
+        <v>24.5788244724773</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.01968755550904</v>
+        <v>45.08260782198752</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>49.21054270055231</v>
+        <v>44.64619197269627</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>23.64134575676692</v>
+        <v>8.112871604229007</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.18342596477154</v>
+        <v>43.1116991814812</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.6011535581526</v>
+        <v>43.32730032264048</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>33.63146187322759</v>
+        <v>8.465078438843815</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>53.81812012346489</v>
+        <v>62.71195591915021</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.1179330884572</v>
+        <v>8.673667027143825</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>42.1067228673789</v>
+        <v>23.51514002233402</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46.32981237671441</v>
+        <v>29.58606933505524</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.0939900112021</v>
+        <v>2.780526075152043</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>40.7040998633182</v>
+        <v>34.88688448697475</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.09937979049857</v>
+        <v>37.55339303651613</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.82930545801207</v>
+        <v>7.726078787662697</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.86994495181981</v>
+        <v>55.69832914368135</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.65317994965439</v>
+        <v>56.60567703815131</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>51.51317854796054</v>
+        <v>56.71458090396838</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>58.90889772684174</v>
+        <v>62.6913925225618</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>62.57106939558155</v>
+        <v>68.84647980046681</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.96745612947574</v>
+        <v>18.0294099163019</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>52.29350733246478</v>
+        <v>34.2084364831866</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>59.6802320080421</v>
+        <v>40.23453861106674</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.04097037647296</v>
+        <v>15.66096031955165</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>45.27104456755229</v>
+        <v>35.63711456647769</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.46266770907972</v>
+        <v>41.39006960783736</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.92078191723244</v>
+        <v>5.302747268314391</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.47367121644524</v>
+        <v>32.03740314654242</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.89368555459118</v>
+        <v>40.37691422970676</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.9279240329634</v>
+        <v>5.63087109714564</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.12328419159346</v>
+        <v>53.75978561995835</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.06276105761312</v>
+        <v>4.859109418808778</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.02147347440746</v>
+        <v>19.84819398787657</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>45.26357465213143</v>
+        <v>30.1819473742593</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.97650666962875</v>
+        <v>2.815195843289299</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.54667516077278</v>
+        <v>36.36171543831837</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>43.96178009587096</v>
+        <v>42.42408565898014</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.62563362730734</v>
+        <v>3.888622761402161</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>50.6342354828042</v>
+        <v>54.05043610310558</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>55.43763246231673</v>
+        <v>58.48428141879269</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>50.34465525148821</v>
+        <v>53.71778821713028</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>57.74778722283828</v>
+        <v>57.54495065941286</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>61.41773559661294</v>
+        <v>65.9761250711589</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.86795376272809</v>
+        <v>16.24169844755534</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>51.13995653151285</v>
+        <v>28.35809914747608</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>58.56262622673877</v>
+        <v>44.60583528735756</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.98613493240768</v>
+        <v>11.80040142297383</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>44.18685694399354</v>
+        <v>33.46927182176734</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.39593566572913</v>
+        <v>40.73810812305369</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.80187993150174</v>
+        <v>6.654051992774999</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>41.31547802336227</v>
+        <v>34.33621880094141</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>45.75394684431961</v>
+        <v>46.20575955898747</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.72285698108008</v>
+        <v>3.749135839782905</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>52.88679908033051</v>
+        <v>48.84039590883449</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>56.47094509437098</v>
+        <v>30.83160539636427</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>50.84138141918634</v>
+        <v>24.0554895378629</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>58.87597381788417</v>
+        <v>39.39537620223412</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>62.68314346204237</v>
+        <v>41.96546837320255</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>32.07234273118636</v>
+        <v>10.67229980530199</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>53.36770346801115</v>
+        <v>22.02693704296348</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>60.26807117424496</v>
+        <v>29.9415388768033</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.63105458496279</v>
+        <v>18.2312607169247</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>49.79095794591791</v>
+        <v>27.42764743231439</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>54.39736634233225</v>
+        <v>37.13987844514608</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.3976557772367</v>
+        <v>2.40750380498498</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>47.42321117028405</v>
+        <v>12.90997212296409</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>52.10930011939932</v>
+        <v>21.02564565298031</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.0434189310301</v>
+        <v>-0.2121122498380679</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>60.24122744923821</v>
+        <v>28.55162066196893</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>65.48733179136003</v>
+        <v>43.76155389995648</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>60.73822060204364</v>
+        <v>27.04934915695835</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>69.01862484170638</v>
+        <v>44.70149840984037</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>73.05377277390524</v>
+        <v>51.07264638973204</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>39.28749631316904</v>
+        <v>8.885518880690771</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.45812789637754</v>
+        <v>25.97365576598206</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>69.89768551685549</v>
+        <v>38.90222530936758</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>58.62600156127085</v>
+        <v>63.96862356195423</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.88660230442092</v>
+        <v>64.27206392470816</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.92787374098695</v>
+        <v>73.45976430353826</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.73821625434424</v>
+        <v>72.65222413177436</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.95142719952472</v>
+        <v>29.83813006356333</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>55.39869393595288</v>
+        <v>68.8248890922265</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>62.27360781405606</v>
+        <v>70.95814501983938</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.46404569278221</v>
+        <v>31.41260250023139</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>51.72172970701029</v>
+        <v>47.74894137999618</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>56.31590522982416</v>
+        <v>49.0326668387471</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.33984818704431</v>
+        <v>9.942721344747415</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.48724843630021</v>
+        <v>48.05056210940329</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>54.16160850628059</v>
+        <v>48.6662450341212</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>41.15432317483234</v>
+        <v>11.36772570276428</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.4642418618767</v>
+        <v>73.43472728794633</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>67.69794675862489</v>
+        <v>74.14309520865761</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>62.83985536505182</v>
+        <v>83.08935193492525</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>71.12717827540791</v>
+        <v>87.81776063692269</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>75.16493815636485</v>
+        <v>88.43894310305127</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>41.2222574677202</v>
+        <v>38.20406769034059</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>64.54523638657143</v>
+        <v>83.93133506618197</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>71.96069036509697</v>
+        <v>84.88706262765557</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>58.93199345757851</v>
+        <v>67.75772497665915</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>53.17447796890594</v>
+        <v>54.57712202923855</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>61.21051402677048</v>
+        <v>64.36438150019727</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>65.02331148948325</v>
+        <v>71.23537429684484</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>34.208824239184</v>
+        <v>19.78051985173282</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>55.68164444153467</v>
+        <v>63.29554060178828</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>62.55437921097024</v>
+        <v>67.60059978191531</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>34.72259975783385</v>
+        <v>21.35705236266739</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>51.9900013866753</v>
+        <v>39.85124525565476</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>56.58388389042644</v>
+        <v>47.03038633898367</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.63594592119983</v>
+        <v>6.527825140580322</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>49.79413612920756</v>
+        <v>39.81604777130732</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.46996386224891</v>
+        <v>45.57723218210316</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>41.46849249911852</v>
+        <v>7.203797167488897</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.7875677777821</v>
+        <v>66.62418004135841</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>68.02076026171868</v>
+        <v>77.3341923742726</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>63.1437009629437</v>
+        <v>77.49507846478089</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>71.42574476780366</v>
+        <v>83.82838164271627</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>75.46594685042234</v>
+        <v>92.30097825938439</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>41.49615026138997</v>
+        <v>25.32733339797827</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>64.84414845686742</v>
+        <v>78.73061929411712</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>72.25718020035916</v>
+        <v>84.60490871454414</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.71395044237984</v>
+        <v>63.49786453132664</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>52.00571127439149</v>
+        <v>35.74355118562526</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>60.05054472636309</v>
+        <v>44.4379181701173</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>63.87083762373649</v>
+        <v>54.76442167943053</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.1083170550522</v>
+        <v>15.67464342767452</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>54.52854121144461</v>
+        <v>56.22756217934449</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>61.43512887585111</v>
+        <v>64.17745205433245</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.65966710108395</v>
+        <v>16.80300882070317</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>50.89833363436107</v>
+        <v>39.53350312226998</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>55.51105740989112</v>
+        <v>48.72812189311209</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.50916669271288</v>
+        <v>7.912025990923407</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.62949124697433</v>
+        <v>42.88333446504835</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>53.32450323516169</v>
+        <v>51.86871486550226</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.25536196046577</v>
+        <v>5.0179782754178</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.54342830153301</v>
+        <v>62.30241247253888</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>66.79694340426229</v>
+        <v>75.92128758140277</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>61.96975747453354</v>
+        <v>68.26717797807113</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>70.26085442528885</v>
+        <v>76.3100476284673</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.30977621490115</v>
+        <v>89.26137404381758</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>40.38519734131988</v>
+        <v>19.99842402386745</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>63.6839854752548</v>
+        <v>72.72237213276399</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>71.13067335841052</v>
+        <v>85.56219209448807</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.548863248228312</v>
+        <v>11.84394851219813</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.8354763685626</v>
+        <v>12.08219367121505</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.98270133396477</v>
+        <v>20.49711966188026</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.9019606042523289</v>
+        <v>1.53344939348705</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.65937223204276</v>
+        <v>6.521727387824157</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.96059873860348</v>
+        <v>9.162271234252007</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.321876830620695</v>
+        <v>4.02779992398759</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.3660543450994</v>
+        <v>20.48046296857655</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.10534348344657</v>
+        <v>23.65521965949447</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.8794459428553</v>
+        <v>8.861093805712091</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>32.57896874257742</v>
+        <v>12.52036065156125</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.27593754855502</v>
+        <v>12.58749104718761</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.968200372492701</v>
+        <v>7.728637131010768</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.25376519540875</v>
+        <v>9.260236313855739</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.26873938081311</v>
+        <v>17.793238039982</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.961395053001221</v>
+        <v>9.631403916415604</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.49659733652522</v>
+        <v>19.39365742463911</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.66805199306247</v>
+        <v>22.95802251141051</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.594133844360334</v>
+        <v>1.742081526298865</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.13179074935542</v>
+        <v>6.82002249003374</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.49595703452442</v>
+        <v>10.32469562027878</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.125654614995224</v>
+        <v>0.7849946738805009</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.34143020285871</v>
+        <v>14.45036739983862</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.226273084335794</v>
+        <v>16.36269712920777</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.60393139176333</v>
+        <v>21.7882886518948</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.74031362485683</v>
+        <v>24.27775736536473</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.8844377658744236</v>
+        <v>0.7909937948363357</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>17.56067616229077</v>
+        <v>20.77117072571128</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.8512174106505</v>
+        <v>22.63558480471109</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>8.258281722169974</v>
+        <v>2.772499780740038</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.40657610918895</v>
+        <v>31.7132419489556</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.13512762329089</v>
+        <v>32.3438336197858</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.80889539030996</v>
+        <v>27.97112537654803</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.51517384874285</v>
+        <v>36.30396756053608</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.21731298377678</v>
+        <v>38.45827002334336</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.734561101878089</v>
+        <v>13.84205253511918</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.16561255458812</v>
+        <v>31.99056065647175</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.15653235644111</v>
+        <v>34.92241680966828</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.643810752546861</v>
+        <v>13.20712662960912</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.26954781021052</v>
+        <v>27.87950549645555</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.43254153132346</v>
+        <v>30.2829572872105</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.385191832313676</v>
+        <v>2.421641209643031</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.03677704916247</v>
+        <v>25.94654254094579</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.3923870187298</v>
+        <v>30.09119799367255</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.06730474630305</v>
+        <v>3.295923937522236</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.3866262253355</v>
+        <v>40.06499095730263</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.468377224479124</v>
+        <v>5.985865513005724</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.85591736280898</v>
+        <v>14.20232314836822</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.99261551720245</v>
+        <v>20.16002868687502</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.163743481602193</v>
+        <v>1.285754050515994</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.85150206734875</v>
+        <v>18.23543553752128</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.14395005975636</v>
+        <v>21.85121801650086</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.554467663142308</v>
+        <v>5.626764003612248</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.71201016995567</v>
+        <v>31.32412894414308</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.44076764217212</v>
+        <v>35.76118662825988</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.09736973101161</v>
+        <v>33.72067767094912</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.79904962165257</v>
+        <v>37.61143239695919</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>38.50427324878717</v>
+        <v>44.86713245422284</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.991360080933287</v>
+        <v>2.621793390887923</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.44868455383041</v>
+        <v>19.89648393357494</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.43715223007078</v>
+        <v>24.19458240693292</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.883896935662278</v>
+        <v>7.784635840466773</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.51893731716079</v>
+        <v>20.83235284150952</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.6828714511404</v>
+        <v>28.37867182556728</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.662072143078451</v>
+        <v>1.576389584931658</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.32475200119585</v>
+        <v>18.57230699902504</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.68274594481956</v>
+        <v>28.41690951046776</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.36083086265054</v>
+        <v>2.770732900201086</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.68881835003768</v>
+        <v>32.39635813432056</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.440818987840554</v>
+        <v>2.129992393497506</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.79854082798725</v>
+        <v>9.875603826996286</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.95250851747456</v>
+        <v>19.36374327580936</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.07260567942307361</v>
+        <v>-1.193962186237947</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.72034302304956</v>
+        <v>14.36498138610324</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.030864826752</v>
+        <v>23.92846951020893</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>7.380560565512168</v>
+        <v>-0.4262915548883512</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.50637642798074</v>
+        <v>27.08541127945739</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.25357841924356</v>
+        <v>34.04432029849747</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.9593703423412</v>
+        <v>28.97543507056224</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.66774146683425</v>
+        <v>31.04313004782832</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.37892196688015</v>
+        <v>37.80423477975755</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.920219527621301</v>
+        <v>-0.09806237672795604</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.32398429171983</v>
+        <v>16.82591985533692</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.34515615048973</v>
+        <v>27.34198902986789</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.856200004618787</v>
+        <v>3.742625471961052</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.46210836034378</v>
+        <v>17.3753963802626</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.64180778575408</v>
+        <v>25.24184119846355</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.569202378627605</v>
+        <v>-0.1472564573248611</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>19.19246590128587</v>
+        <v>14.97102304789534</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.56716897333243</v>
+        <v>28.00536927859504</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.18517797070869</v>
+        <v>-0.6901645464855619</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.4820238436194</v>
+        <v>25.79336183463797</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.16290712686123</v>
+        <v>19.92713866834539</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.22086004475209</v>
+        <v>16.91299043386136</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.58362215703536</v>
+        <v>27.96031802901053</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>39.45726743323719</v>
+        <v>28.77981026968311</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.90850436562143</v>
+        <v>4.0160091479272</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.27640533676792</v>
+        <v>10.85363289104504</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.91873765903493</v>
+        <v>17.70994467676928</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.48780982276381</v>
+        <v>14.64604125692061</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.12559688570366</v>
+        <v>22.70942783299037</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.68744797609411</v>
+        <v>31.30221072845181</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.11445064338373</v>
+        <v>-1.527709484421273</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.30743921476603</v>
+        <v>6.12684249698891</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.94229518043707</v>
+        <v>12.8650431984676</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.60309762040448</v>
+        <v>1.419678256541843</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.01360548744462</v>
+        <v>20.44745965745489</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>43.24027708528537</v>
+        <v>33.8905691997759</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.97047780448604</v>
+        <v>22.50542090510658</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>47.52891325101947</v>
+        <v>35.89072098430336</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>51.62266704509544</v>
+        <v>41.6016964127972</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.86555853424113</v>
+        <v>6.504388469393827</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.21684047088188</v>
+        <v>17.86131761009766</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.366577370289</v>
+        <v>28.15898152438769</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.2002096476716</v>
+        <v>48.19734143120101</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.15074780418833</v>
+        <v>39.59321704609725</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.51994048153288</v>
+        <v>49.10465516447715</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.39940461467648</v>
+        <v>49.88855336718296</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.67984019187224</v>
+        <v>12.06502094417361</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.19390609952683</v>
+        <v>43.76068048266683</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.81398950345525</v>
+        <v>47.86879411045582</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.22458509637135</v>
+        <v>23.72492317631959</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.95536385721711</v>
+        <v>36.79441843132605</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.50712949340997</v>
+        <v>41.11547964222368</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.96023528733118</v>
+        <v>5.744179007382225</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.26991814157124</v>
+        <v>36.60926807581433</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.89517470803145</v>
+        <v>41.39949142294827</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.60674199261542</v>
+        <v>10.0402968663643</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.12379246304982</v>
+        <v>56.86456919074381</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.34021389458572</v>
+        <v>62.653528060733</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>41.96360491820765</v>
+        <v>64.89789898576045</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.52843768455953</v>
+        <v>71.86164234734919</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>53.62724847688892</v>
+        <v>77.068825325994</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.69897702605419</v>
+        <v>27.71081852751593</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>43.19658819211855</v>
+        <v>65.68741057096703</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>50.32527156782338</v>
+        <v>68.18532406796113</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.50335870282363</v>
+        <v>50.85444144661146</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.43496257996539</v>
+        <v>32.77958553305849</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.79907694844048</v>
+        <v>39.60898812960082</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.68143880147602</v>
+        <v>47.90949739039782</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.93463392460231</v>
+        <v>6.050635951539544</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.47378890753016</v>
+        <v>37.63485743711142</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.09209381396936</v>
+        <v>43.62907795838808</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.48054603642231</v>
+        <v>16.00396699307587</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.22099711977975</v>
+        <v>30.31675480317403</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.77265473777351</v>
+        <v>40.18141042569678</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.25321362796328</v>
+        <v>3.206297526496527</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.57397192351559</v>
+        <v>31.03049723897925</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.20079178304856</v>
+        <v>39.53348325988173</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.91737626702031</v>
+        <v>7.399939015034224</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.44355694992639</v>
+        <v>51.44242245561638</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.65962081033064</v>
+        <v>65.91383646035935</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>42.26335016147591</v>
+        <v>59.38364675577579</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.82307675529879</v>
+        <v>64.81625225352717</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.92475407130654</v>
+        <v>80.33268790379427</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.96976234618254</v>
+        <v>17.33582401793978</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>43.49189356845045</v>
+        <v>58.82323854728982</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>50.6185015515607</v>
+        <v>66.11833753531249</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.31333294854607</v>
+        <v>42.58313702423446</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.29641656809138</v>
+        <v>17.63956330601268</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.66848477941293</v>
+        <v>23.70038940438648</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.55642804507453</v>
+        <v>30.63838166723736</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.86225278663881</v>
+        <v>2.276714699877665</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.34910554259069</v>
+        <v>29.43001206131992</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.99821886244135</v>
+        <v>38.87924975722376</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.44409933184035</v>
+        <v>11.00068578854735</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.15623961929973</v>
+        <v>28.64619995521797</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.72508519567128</v>
+        <v>40.19843376505258</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.15182868446663</v>
+        <v>1.741973147233882</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.43477070088721</v>
+        <v>28.947430701069</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.07912866019126</v>
+        <v>40.77358534596961</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.73281982599966</v>
+        <v>3.45919961972093</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.22850480139702</v>
+        <v>45.96698351752273</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.46323447337435</v>
+        <v>62.16300402530744</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.11875437624679</v>
+        <v>50.73406478498225</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.68682074877545</v>
+        <v>57.23613428604173</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>52.79544137418929</v>
+        <v>72.89595173008203</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.8860510548324</v>
+        <v>10.3206796927519</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.35973637582812</v>
+        <v>53.0917557971829</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.51705576238831</v>
+        <v>66.15077271622145</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-19.13360826660734</v>
+        <v>20.57103795708186</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>0.3234101645480525</v>
+        <v>18.9564778306372</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>5.722963128831357</v>
+        <v>35.45236979736986</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-25.0771846860758</v>
+        <v>10.601506788736</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-2.422927495837769</v>
+        <v>34.2306735418674</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3.195106885392218</v>
+        <v>38.55230579476262</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-15.7982445993154</v>
+        <v>11.90895709767137</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>8.634852138888077</v>
+        <v>49.51412790313185</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.73496873714663</v>
+        <v>55.46560717284902</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>13.58957233567592</v>
+        <v>20.76310506818863</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.55647104430306</v>
+        <v>23.51568178321313</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.30700776517002</v>
+        <v>24.64613447638223</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-9.389417815330903</v>
+        <v>32.16702809308353</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.48862514752426</v>
+        <v>18.41914982180112</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.61248490626866</v>
+        <v>44.61841802499373</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-14.11965960138225</v>
+        <v>20.36970496858536</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>5.692872911921608</v>
+        <v>28.24426503822419</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.08126404505119</v>
+        <v>35.63162331463047</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-21.40896174254945</v>
+        <v>25.15815559454687</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1.241131343960763</v>
+        <v>32.00866142349682</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>6.923204530773903</v>
+        <v>35.21122207247152</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-11.68079505165734</v>
+        <v>3.361497380496939</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.00176422265647</v>
+        <v>25.73702691874291</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-17.00867256468587</v>
+        <v>30.05976161966266</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.566296405578334</v>
+        <v>36.27370234620906</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>7.951641034711383</v>
+        <v>41.67228106639544</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-22.81600519977327</v>
+        <v>10.06577955413924</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-0.01362018739071225</v>
+        <v>52.75651082178057</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>5.590580690201329</v>
+        <v>51.26483565682611</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-13.34209666170017</v>
+        <v>11.33629893806302</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>11.22610378795639</v>
+        <v>64.11219130884233</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>17.31218897731417</v>
+        <v>62.10146300065279</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.04695427379261</v>
+        <v>58.13804084882796</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.02267806163422</v>
+        <v>61.73791250654874</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.7781840375707</v>
+        <v>61.8475580132333</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-7.142118082256074</v>
+        <v>47.37543296953236</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.92194723974408</v>
+        <v>55.93532872163144</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.0145587380914</v>
+        <v>68.49668264145954</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-11.98712915781891</v>
+        <v>27.77722113377359</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>7.942836978655373</v>
+        <v>42.6667553958806</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>13.31998857966389</v>
+        <v>43.53430499118937</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-19.14091747913016</v>
+        <v>26.61956408241047</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>3.656211598536003</v>
+        <v>54.62127712684423</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>9.327160363052069</v>
+        <v>51.70611360731568</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-9.216925926251035</v>
+        <v>9.845124484021273</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.60011200124957</v>
+        <v>59.89169221499354</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-16.68696179877618</v>
+        <v>13.58674798633421</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.900389058682505</v>
+        <v>24.49675876206854</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>8.28623064068004</v>
+        <v>33.4339323008133</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-22.44707603515236</v>
+        <v>8.88404072237272</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>0.3694114986562003</v>
+        <v>47.74269022010586</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5.976112847256596</v>
+        <v>48.87412660160638</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-12.95101381958713</v>
+        <v>10.18530766548698</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>11.62873635130909</v>
+        <v>60.50669688297808</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>17.71525861006788</v>
+        <v>63.88895703084754</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>16.42683911734649</v>
+        <v>67.24684566965207</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.39671194045243</v>
+        <v>68.17416696354118</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.15589310515119</v>
+        <v>71.74052721754155</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-6.803657867255074</v>
+        <v>26.34981489345651</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>18.29366668355719</v>
+        <v>42.22735953170161</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.38357884374393</v>
+        <v>56.61713429555712</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-11.66840524492747</v>
+        <v>19.6722487455407</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.273248479339067</v>
+        <v>33.4938943752886</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>13.65166835243182</v>
+        <v>40.8245839622345</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-18.77532862409029</v>
+        <v>24.51760752455585</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.035416382496331</v>
+        <v>43.13890371438036</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>9.70942763574868</v>
+        <v>49.18147403463247</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-8.829487567031519</v>
+        <v>7.474994751522576</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>15.99840020353529</v>
+        <v>51.02411110984204</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-18.02092024259854</v>
+        <v>8.360287832518022</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1.529323180472893</v>
+        <v>20.44346755507349</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.937830432104563</v>
+        <v>33.26426633458374</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-23.86019947090497</v>
+        <v>8.800233143931091</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-1.093083136543582</v>
+        <v>50.89820534548662</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>4.537197146297526</v>
+        <v>54.27167836142604</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-14.47200667295525</v>
+        <v>6.181671834885563</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>10.06815498333147</v>
+        <v>59.77414337676764</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>16.17875697572179</v>
+        <v>65.92063431346035</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.95191651664434</v>
+        <v>63.5524194368322</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.93085744243605</v>
+        <v>63.16922815789796</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.69884229044877</v>
+        <v>70.29264785722552</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-8.192504461103885</v>
+        <v>20.94577044468897</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>16.83889976983109</v>
+        <v>31.91752033627018</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.97159040832834</v>
+        <v>56.87000554476745</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-13.00202537728907</v>
+        <v>15.07306136010269</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>6.903407188884376</v>
+        <v>32.18169291718968</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.30255303669001</v>
+        <v>40.38950882339881</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-20.19022421265601</v>
+        <v>26.28237010155305</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.571897512960333</v>
+        <v>48.34128788137217</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>8.267734726025441</v>
+        <v>57.34274753763552</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-10.35222208389012</v>
+        <v>6.198508141543254</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.43684414856655</v>
+        <v>48.62335386396205</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.16559708582381</v>
+        <v>30.46064785446961</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.9830573452384</v>
+        <v>20.81373319066308</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.80713671377662</v>
+        <v>37.1655126028341</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.75361297618973</v>
+        <v>40.00319850534814</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-5.303458084981004</v>
+        <v>12.80132579242632</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.0895780163159</v>
+        <v>16.23229666871444</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.59962687366702</v>
+        <v>27.14791205667519</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-4.257283160504596</v>
+        <v>17.19328611629092</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.85494934192472</v>
+        <v>24.40866598998592</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.73771982609333</v>
+        <v>35.40413797054548</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-11.37440091858532</v>
+        <v>23.37769987527721</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>13.26397357134476</v>
+        <v>29.94602752093573</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.27507862193715</v>
+        <v>35.53378426676595</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.8094426239120818</v>
+        <v>1.400686141459765</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.90037870001482</v>
+        <v>29.47414965800382</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.57612224877924</v>
+        <v>45.02701914033454</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.27854291606294</v>
+        <v>28.44572987155877</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.33917980386596</v>
+        <v>45.87473381305395</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>47.55648337766735</v>
+        <v>54.91460320136625</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>6.505271093091846</v>
+        <v>10.8577692320307</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.25359978901037</v>
+        <v>23.62616309843756</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>44.44512395013147</v>
+        <v>38.70962568799015</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.75345551496707</v>
+        <v>60.60748387014507</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>19.44175505878601</v>
+        <v>61.7054062635449</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.27421917567881</v>
+        <v>70.69796441535614</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.2263552764455</v>
+        <v>67.92068580683646</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-3.04896488151901</v>
+        <v>34.35766182917558</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.53127062919702</v>
+        <v>65.02417090773785</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>32.01208723151925</v>
+        <v>69.78619233600597</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-2.056485804830325</v>
+        <v>31.34045268532393</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.17626612867834</v>
+        <v>44.5871682966967</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.04576569055643</v>
+        <v>46.21315300136492</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-9.037090513058336</v>
+        <v>28.59847454022773</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>15.75169763229875</v>
+        <v>61.33691230058965</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.75037246646302</v>
+        <v>56.86830801653471</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>3.351481135328354</v>
+        <v>11.80397158351532</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.5806929736395</v>
+        <v>72.27754634803854</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.24297457261787</v>
+        <v>72.22472440308093</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.816719932845</v>
+        <v>85.19507250288885</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.8859246617089</v>
+        <v>87.07830565544735</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.10809703213675</v>
+        <v>88.45661459622951</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>8.837789664460615</v>
+        <v>42.20044895563957</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.77369146905326</v>
+        <v>83.07255058482242</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>46.93778282739799</v>
+        <v>85.56523515864093</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.15311436673495</v>
+        <v>65.24898721344988</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>19.81601773551277</v>
+        <v>52.55216982756707</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.64205563180344</v>
+        <v>61.69171448921124</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.59762632739018</v>
+        <v>65.70154183088012</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-2.713087814915392</v>
+        <v>24.08162814801996</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.89888963748739</v>
+        <v>59.37949189477548</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>32.37781595655026</v>
+        <v>66.55190697368489</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1.717406403813019</v>
+        <v>22.91965622963661</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.527519421183</v>
+        <v>37.56338972497871</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.39694731416456</v>
+        <v>45.42916335053974</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-8.650965390898632</v>
+        <v>26.76262582193484</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.15144377088342</v>
+        <v>53.26158994323879</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.15213616265257</v>
+        <v>54.96127396671234</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.76076085578512</v>
+        <v>8.589726042377801</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.00143783430005</v>
+        <v>65.65946524272694</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.66340306596489</v>
+        <v>76.35700282920087</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.2107596508346</v>
+        <v>80.69882934482136</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>45.27350953291951</v>
+        <v>83.66697314453513</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.49908254539132</v>
+        <v>91.93914289464279</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>9.193910945179411</v>
+        <v>29.30240855380728</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.16096230717672</v>
+        <v>77.37216916715919</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.32282780646718</v>
+        <v>85.68359003109174</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>20.61349151900792</v>
+        <v>62.15843676032378</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>18.34086069866818</v>
+        <v>35.29818089881957</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.17760229658111</v>
+        <v>42.62121452535662</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.14160116947103</v>
+        <v>51.48755470810634</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-4.103180761168998</v>
+        <v>18.08831237708138</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.44452554284001</v>
+        <v>52.41795702537101</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.96376729223225</v>
+        <v>61.95379421397215</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-3.060969004146864</v>
+        <v>17.1504517992201</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.1485994847257</v>
+        <v>37.64614251278931</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.04050926473022</v>
+        <v>46.73902713917525</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-10.07553973216432</v>
+        <v>28.85824742124013</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>14.6801252920934</v>
+        <v>59.42093873576417</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.70363833281972</v>
+        <v>63.98514708415469</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.228053949168847</v>
+        <v>7.263510692526321</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.43052866004634</v>
+        <v>64.02545371333795</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.1167846330436</v>
+        <v>75.98158891702734</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.72929965985066</v>
+        <v>74.26241241368396</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.80304512460301</v>
+        <v>78.34151178156118</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.03862829891505</v>
+        <v>93.1498405849685</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>7.790910627979508</v>
+        <v>23.26760958632524</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.69811381061609</v>
+        <v>71.22879875668805</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>45.9000471579681</v>
+        <v>86.46313514301438</v>
       </c>
     </row>
   </sheetData>
